--- a/similarities/split_global/harmonic_similarity_timestamps_408.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_408.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,458 +484,758 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:00:24.401147', '0:00:28.461467')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:02:01.080000', '0:02:02')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=121.08</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C'], ['G:7', 'C', 'G:7']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#'], ['B:7', 'E:maj', 'B:7']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000'), ('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:01:08.640000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:52.580000', '0:00:58.920000'), ('0:00:02.540000', '0:00:09.700000')]</t>
+          <t>('0:00:16.840000', '0:00:24.560000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=52.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=2.54']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb', 'Bb/3'], ['Bb', 'Eb', 'Ab']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D'], ['D', 'G', 'C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:25.942000', '0:00:29.102000'), ('0:00:10.286000', '0:00:15.006000')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:03.117845', '0:00:14.158934'), ('0:00:11.337709', '0:00:19.847823')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=25.942', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=10.286']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=3.117845', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=11.337709']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+          <t>('0:00:00.600000', '0:00:05.900000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:45.840000', '0:02:00.500000'), ('0:01:56.800000', '0:02:12.880000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:41.840000', '0:00:45.380000'), ('0:01:06.040000', '0:01:11.560000')]</t>
+          <t>('0:00:19.780000', '0:00:23.120000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=105.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=116.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=66.04']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>jaah_44</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_63</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['C:7', 'B:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['E:7', 'Eb:7', 'D:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
+          <t>('0:01:08.420000', '0:01:10.890000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
+          <t>('0:01:15.200000', '0:01:18.230000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=18.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-44#t=68.42</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=6.8']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=75.2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E'], ['E', 'A', 'E']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'G', 'C:maj'], ['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:13.393711', '0:00:17.886772'), ('0:00:00.866546', '0:00:12.917702')]</t>
+          <t>('0:00:25.720000', '0:00:45.260000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:32.808000', '0:00:36.091000'), ('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:16.040000', '0:00:24.060000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=13.393711', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:7/F#', 'G:maj', 'E:min7/G']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb:7/#5', 'Ab', 'F:min7']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:12.680000', '0:01:15.980000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:02.624000', '0:00:06.624000')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=72.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-234#t=2.624']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:31.898979', '0:00:36.914489')]</t>
+          <t>('0:00:36.400000', '0:00:41.700000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:37.019000', '0:02:44.660000')]</t>
+          <t>('0:00:32.440000', '0:00:34.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.898979']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>jaah_63</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A#:min', 'A:dim7/A#', 'A#:min', 'A:dim7/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:min', 'G:dim7', 'F:min', 'G:dim7', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
+          <t>('0:00:00.260000', '0:00:10.240000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:30.900000')]</t>
+          <t>('0:00:00.840000', '0:00:13.370000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=0.26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=0.84</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>('0:01:34.060000', '0:01:45.580000')</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>('0:01:33.260000', '0:01:42.460000')</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=94.06</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=93.26</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['A:min', 'E:7', 'A:min']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>('0:00:19.480000', '0:00:25.860000')</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>('0:00:18', '0:00:26.460000')</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=18.0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['E', 'A', 'E']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>('0:00:00.866546', '0:00:12.917702')</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>('0:00:16.580000', '0:00:22.660000')</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>('0:00:20.920000', '0:00:26.040000')</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['A:min', 'E:7', 'A:min']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>('0:00:17.780000', '0:00:25.400000')</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>('0:01:58.180000', '0:02:03.040000')</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=17.78</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
